--- a/SchedulingData/dynamic16/pso/scheduling2_6.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_6.xlsx
@@ -462,173 +462,173 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>229.64</v>
+        <v>235.44</v>
       </c>
       <c r="D2" t="n">
-        <v>285.66</v>
+        <v>303.36</v>
       </c>
       <c r="E2" t="n">
-        <v>12.044</v>
+        <v>10.784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>246.4</v>
+        <v>233.64</v>
       </c>
       <c r="D3" t="n">
-        <v>284.92</v>
+        <v>289.66</v>
       </c>
       <c r="E3" t="n">
-        <v>12.668</v>
+        <v>10.724</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>247.52</v>
+        <v>209.78</v>
       </c>
       <c r="D4" t="n">
-        <v>320.1</v>
+        <v>270.7</v>
       </c>
       <c r="E4" t="n">
-        <v>14.08</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>320.1</v>
+        <v>236.12</v>
       </c>
       <c r="D5" t="n">
-        <v>363.5</v>
+        <v>319.22</v>
       </c>
       <c r="E5" t="n">
-        <v>11.36</v>
+        <v>12.648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>285.66</v>
+        <v>270.7</v>
       </c>
       <c r="D6" t="n">
-        <v>341.16</v>
+        <v>325.6</v>
       </c>
       <c r="E6" t="n">
-        <v>7.624</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>284.92</v>
+        <v>303.36</v>
       </c>
       <c r="D7" t="n">
-        <v>369.34</v>
+        <v>398.56</v>
       </c>
       <c r="E7" t="n">
-        <v>8.356</v>
+        <v>6.364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>210.68</v>
+        <v>319.22</v>
       </c>
       <c r="D8" t="n">
-        <v>271.6</v>
+        <v>376.84</v>
       </c>
       <c r="E8" t="n">
-        <v>10.04</v>
+        <v>8.996</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>363.5</v>
+        <v>289.66</v>
       </c>
       <c r="D9" t="n">
-        <v>417.88</v>
+        <v>355.76</v>
       </c>
       <c r="E9" t="n">
-        <v>7.552</v>
+        <v>6.244</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>341.16</v>
+        <v>262.02</v>
       </c>
       <c r="D10" t="n">
-        <v>405.56</v>
+        <v>317.2</v>
       </c>
       <c r="E10" t="n">
-        <v>4.324</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="11">
@@ -637,74 +637,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>271.6</v>
+        <v>325.6</v>
       </c>
       <c r="D11" t="n">
-        <v>349.12</v>
+        <v>372.3</v>
       </c>
       <c r="E11" t="n">
-        <v>6.388</v>
+        <v>8.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>202.74</v>
+        <v>212.6</v>
       </c>
       <c r="D12" t="n">
-        <v>275.64</v>
+        <v>271.8</v>
       </c>
       <c r="E12" t="n">
-        <v>12.936</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>233.22</v>
+        <v>355.76</v>
       </c>
       <c r="D13" t="n">
-        <v>275.62</v>
+        <v>426.32</v>
       </c>
       <c r="E13" t="n">
-        <v>14.108</v>
+        <v>2.788</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>275.64</v>
+        <v>398.56</v>
       </c>
       <c r="D14" t="n">
-        <v>342.94</v>
+        <v>492.66</v>
       </c>
       <c r="E14" t="n">
-        <v>10.296</v>
+        <v>1.564</v>
       </c>
     </row>
     <row r="15">
@@ -713,36 +713,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>417.88</v>
+        <v>492.66</v>
       </c>
       <c r="D15" t="n">
-        <v>473.9</v>
+        <v>571.4299999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>3.08</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>405.56</v>
+        <v>271.8</v>
       </c>
       <c r="D16" t="n">
-        <v>452.54</v>
+        <v>331.5</v>
       </c>
       <c r="E16" t="n">
-        <v>1.256</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="17">
@@ -755,10 +755,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>452.54</v>
+        <v>426.32</v>
       </c>
       <c r="D17" t="n">
-        <v>531.73</v>
+        <v>502.54</v>
       </c>
       <c r="E17" t="n">
         <v>30</v>
@@ -770,245 +770,245 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>531.73</v>
+        <v>502.54</v>
       </c>
       <c r="D18" t="n">
-        <v>574.03</v>
+        <v>553.22</v>
       </c>
       <c r="E18" t="n">
-        <v>26.96</v>
+        <v>26.612</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>275.62</v>
+        <v>376.84</v>
       </c>
       <c r="D19" t="n">
-        <v>341.02</v>
+        <v>430.48</v>
       </c>
       <c r="E19" t="n">
-        <v>10.208</v>
+        <v>5.252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>369.34</v>
+        <v>317.2</v>
       </c>
       <c r="D20" t="n">
-        <v>428.7</v>
+        <v>380.2</v>
       </c>
       <c r="E20" t="n">
-        <v>4.04</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>428.7</v>
+        <v>571.4299999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>512.3200000000001</v>
+        <v>608.53</v>
       </c>
       <c r="E21" t="n">
-        <v>30</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>512.3200000000001</v>
+        <v>372.3</v>
       </c>
       <c r="D22" t="n">
-        <v>583.72</v>
+        <v>440.22</v>
       </c>
       <c r="E22" t="n">
-        <v>25.52</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>342.94</v>
+        <v>553.22</v>
       </c>
       <c r="D23" t="n">
-        <v>423.98</v>
+        <v>609.62</v>
       </c>
       <c r="E23" t="n">
-        <v>5.312</v>
+        <v>22.592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>349.12</v>
+        <v>608.53</v>
       </c>
       <c r="D24" t="n">
-        <v>411.12</v>
+        <v>664.29</v>
       </c>
       <c r="E24" t="n">
-        <v>2.788</v>
+        <v>24.024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>411.12</v>
+        <v>380.2</v>
       </c>
       <c r="D25" t="n">
-        <v>482.54</v>
+        <v>432.8</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>482.54</v>
+        <v>432.8</v>
       </c>
       <c r="D26" t="n">
-        <v>548.04</v>
+        <v>501.56</v>
       </c>
       <c r="E26" t="n">
-        <v>26.62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>574.03</v>
+        <v>331.5</v>
       </c>
       <c r="D27" t="n">
-        <v>621.33</v>
+        <v>378.04</v>
       </c>
       <c r="E27" t="n">
-        <v>23.36</v>
+        <v>8.616</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>341.02</v>
+        <v>378.04</v>
       </c>
       <c r="D28" t="n">
-        <v>398.68</v>
+        <v>448.12</v>
       </c>
       <c r="E28" t="n">
-        <v>7.072</v>
+        <v>4.728</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>473.9</v>
+        <v>501.56</v>
       </c>
       <c r="D29" t="n">
-        <v>538.5</v>
+        <v>569.3200000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22</v>
+        <v>26.864</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>538.5</v>
+        <v>448.12</v>
       </c>
       <c r="D30" t="n">
-        <v>639.36</v>
+        <v>502.4</v>
       </c>
       <c r="E30" t="n">
-        <v>30</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="31">
@@ -1017,36 +1017,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>583.72</v>
+        <v>502.4</v>
       </c>
       <c r="D31" t="n">
-        <v>661.4</v>
+        <v>582.36</v>
       </c>
       <c r="E31" t="n">
-        <v>20.872</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>639.36</v>
+        <v>582.36</v>
       </c>
       <c r="D32" t="n">
-        <v>735</v>
+        <v>635.36</v>
       </c>
       <c r="E32" t="n">
-        <v>25.576</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="33">
@@ -1055,36 +1055,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>621.33</v>
+        <v>609.62</v>
       </c>
       <c r="D33" t="n">
-        <v>675.09</v>
+        <v>651.6</v>
       </c>
       <c r="E33" t="n">
-        <v>20.604</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>548.04</v>
+        <v>430.48</v>
       </c>
       <c r="D34" t="n">
-        <v>595.48</v>
+        <v>500.58</v>
       </c>
       <c r="E34" t="n">
-        <v>23.496</v>
+        <v>1.872</v>
       </c>
     </row>
     <row r="35">
@@ -1093,36 +1093,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>423.98</v>
+        <v>500.58</v>
       </c>
       <c r="D35" t="n">
-        <v>510.08</v>
+        <v>583.54</v>
       </c>
       <c r="E35" t="n">
-        <v>1.792</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>510.08</v>
+        <v>569.3200000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>578.5</v>
+        <v>634.62</v>
       </c>
       <c r="E36" t="n">
-        <v>30</v>
+        <v>22.964</v>
       </c>
     </row>
     <row r="37">
@@ -1131,188 +1131,188 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>578.5</v>
+        <v>583.54</v>
       </c>
       <c r="D37" t="n">
-        <v>645.3</v>
+        <v>641.54</v>
       </c>
       <c r="E37" t="n">
-        <v>25.98</v>
+        <v>27.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>661.4</v>
+        <v>641.54</v>
       </c>
       <c r="D38" t="n">
-        <v>715.42</v>
+        <v>703.54</v>
       </c>
       <c r="E38" t="n">
-        <v>18.1</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>398.68</v>
+        <v>635.36</v>
       </c>
       <c r="D39" t="n">
-        <v>478.28</v>
+        <v>707.46</v>
       </c>
       <c r="E39" t="n">
-        <v>3.692</v>
+        <v>23.76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>675.09</v>
+        <v>634.62</v>
       </c>
       <c r="D40" t="n">
-        <v>723.9299999999999</v>
+        <v>713.54</v>
       </c>
       <c r="E40" t="n">
-        <v>16.86</v>
+        <v>18.652</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>735</v>
+        <v>440.22</v>
       </c>
       <c r="D41" t="n">
-        <v>791.7</v>
+        <v>492.66</v>
       </c>
       <c r="E41" t="n">
-        <v>22.036</v>
+        <v>2.144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>723.9299999999999</v>
+        <v>492.66</v>
       </c>
       <c r="D42" t="n">
-        <v>791.53</v>
+        <v>525.26</v>
       </c>
       <c r="E42" t="n">
-        <v>14.22</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>645.3</v>
+        <v>525.26</v>
       </c>
       <c r="D43" t="n">
-        <v>701.48</v>
+        <v>616.71</v>
       </c>
       <c r="E43" t="n">
-        <v>23.472</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>478.28</v>
+        <v>616.71</v>
       </c>
       <c r="D44" t="n">
-        <v>530.38</v>
+        <v>661.0700000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>1.572</v>
+        <v>27.244</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>530.38</v>
+        <v>664.29</v>
       </c>
       <c r="D45" t="n">
-        <v>618.74</v>
+        <v>730.5700000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>21.516</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>715.42</v>
+        <v>661.0700000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>776.76</v>
+        <v>707.77</v>
       </c>
       <c r="E46" t="n">
-        <v>15.076</v>
+        <v>23.704</v>
       </c>
     </row>
     <row r="47">
@@ -1321,36 +1321,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>618.74</v>
+        <v>713.54</v>
       </c>
       <c r="D47" t="n">
-        <v>705.84</v>
+        <v>767.46</v>
       </c>
       <c r="E47" t="n">
-        <v>26.92</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>705.84</v>
+        <v>651.6</v>
       </c>
       <c r="D48" t="n">
-        <v>771.3</v>
+        <v>716.4</v>
       </c>
       <c r="E48" t="n">
-        <v>23.464</v>
+        <v>16.164</v>
       </c>
     </row>
   </sheetData>
